--- a/Codemig/System/Optimization_35.xlsx
+++ b/Codemig/System/Optimization_35.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -357,16 +357,16 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E1">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F1">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G1">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="H1">
         <v>14</v>
@@ -375,54 +375,54 @@
         <v>43</v>
       </c>
       <c r="J1">
-        <v>1265.045448567992</v>
+        <v>538.3246462633241</v>
       </c>
       <c r="K1">
-        <v>1231.407116189593</v>
+        <v>518.3101253207283</v>
       </c>
       <c r="L1">
-        <v>31.1586523783986</v>
+        <v>18.95744574259584</v>
       </c>
       <c r="M1">
-        <v>2.47968</v>
+        <v>1.0570752</v>
       </c>
       <c r="N1">
-        <v>962.774818367992</v>
+        <v>1566.314532060535</v>
       </c>
       <c r="O1">
-        <v>9.923249872683773</v>
+        <v>9.942127279544305</v>
       </c>
       <c r="P1">
-        <v>137.5652561614344</v>
+        <v>137.795142738593</v>
       </c>
       <c r="Q1">
-        <v>5.720546971475729</v>
+        <v>7.004305712584333</v>
       </c>
       <c r="R1">
-        <v>108.0181944518561</v>
+        <v>120.8336253516346</v>
       </c>
       <c r="S1">
-        <v>535.9376746275111</v>
+        <v>576.453909447176</v>
       </c>
       <c r="T1">
-        <v>37.49507950769409</v>
+        <v>586.1706047556662</v>
       </c>
       <c r="U1">
-        <v>184.5252309547193</v>
+        <v>101.5741293346428</v>
       </c>
       <c r="V1">
-        <v>240.1335077714618</v>
+        <v>141.8214163456309</v>
       </c>
       <c r="W1">
-        <v>549.1871158765018</v>
+        <v>339.0204656163109</v>
       </c>
       <c r="X1">
-        <v>0.4500000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B2">
         <v>0.25</v>
@@ -431,16 +431,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="G2">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -449,54 +449,54 @@
         <v>43</v>
       </c>
       <c r="J2">
-        <v>1363.562297297993</v>
+        <v>543.494749060959</v>
       </c>
       <c r="K2">
-        <v>1328.827525112609</v>
+        <v>523.4802281183631</v>
       </c>
       <c r="L2">
-        <v>32.17637218538398</v>
+        <v>18.95744574259584</v>
       </c>
       <c r="M2">
-        <v>2.5584</v>
+        <v>1.0570752</v>
       </c>
       <c r="N2">
-        <v>956.7490215277847</v>
+        <v>1509.235179899081</v>
       </c>
       <c r="O2">
-        <v>9.393662040023578</v>
+        <v>9.160913866832015</v>
       </c>
       <c r="P2">
-        <v>138.4748467059163</v>
+        <v>137.9896962357639</v>
       </c>
       <c r="Q2">
-        <v>5.405669768872622</v>
+        <v>6.331769626801987</v>
       </c>
       <c r="R2">
-        <v>108.3302733378583</v>
+        <v>119.5947308718566</v>
       </c>
       <c r="S2">
-        <v>533.2108904863978</v>
+        <v>564.7387762993974</v>
       </c>
       <c r="T2">
-        <v>33.82991572088589</v>
+        <v>543.3189791735822</v>
       </c>
       <c r="U2">
-        <v>171.9568822244047</v>
+        <v>101.5741293346428</v>
       </c>
       <c r="V2">
-        <v>232.2821995350787</v>
+        <v>141.8214163456309</v>
       </c>
       <c r="W2">
-        <v>570.3453588021692</v>
+        <v>337.9224105936293</v>
       </c>
       <c r="X2">
-        <v>0.4500000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="B3">
         <v>0.25</v>
@@ -505,16 +505,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E3">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -523,54 +523,54 @@
         <v>43</v>
       </c>
       <c r="J3">
-        <v>1568.176318017258</v>
+        <v>548.7836119346548</v>
       </c>
       <c r="K3">
-        <v>1527.587974408173</v>
+        <v>528.769090992059</v>
       </c>
       <c r="L3">
-        <v>37.55762360908527</v>
+        <v>18.95744574259584</v>
       </c>
       <c r="M3">
-        <v>3.03072</v>
+        <v>1.0570752</v>
       </c>
       <c r="N3">
-        <v>953.6634182751877</v>
+        <v>1482.346290782551</v>
       </c>
       <c r="O3">
-        <v>9.578319886475491</v>
+        <v>8.821198500932967</v>
       </c>
       <c r="P3">
-        <v>138.2959509422881</v>
+        <v>138.5844678961504</v>
       </c>
       <c r="Q3">
-        <v>5.522107680534634</v>
+        <v>6.046329045740623</v>
       </c>
       <c r="R3">
-        <v>108.3571158440349</v>
+        <v>119.3452436717351</v>
       </c>
       <c r="S3">
-        <v>536.8559010292339</v>
+        <v>558.8366545278992</v>
       </c>
       <c r="T3">
-        <v>26.94669502330292</v>
+        <v>522.6186533333229</v>
       </c>
       <c r="U3">
-        <v>184.5252309547193</v>
+        <v>101.5741293346428</v>
       </c>
       <c r="V3">
-        <v>250.027514948124</v>
+        <v>141.8214163456309</v>
       </c>
       <c r="W3">
-        <v>613.298324404675</v>
+        <v>336.8931961203305</v>
       </c>
       <c r="X3">
-        <v>0.4500000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="B4">
         <v>0.25</v>
@@ -579,16 +579,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G4">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -597,54 +597,54 @@
         <v>43</v>
       </c>
       <c r="J4">
-        <v>1289.953212458472</v>
+        <v>554.1805926625485</v>
       </c>
       <c r="K4">
-        <v>1254.91328289764</v>
+        <v>534.1660717199527</v>
       </c>
       <c r="L4">
-        <v>32.45692956083187</v>
+        <v>18.95744574259584</v>
       </c>
       <c r="M4">
-        <v>2.583</v>
+        <v>1.0570752</v>
       </c>
       <c r="N4">
-        <v>961.7291635205877</v>
+        <v>1441.49496461774</v>
       </c>
       <c r="O4">
-        <v>9.404744031216437</v>
+        <v>8.270738786176544</v>
       </c>
       <c r="P4">
-        <v>138.618483187664</v>
+        <v>138.6874570603249</v>
       </c>
       <c r="Q4">
-        <v>5.412200368558247</v>
+        <v>5.593277704622306</v>
       </c>
       <c r="R4">
-        <v>108.3996411174782</v>
+        <v>118.4680418499621</v>
       </c>
       <c r="S4">
-        <v>534.8852359392105</v>
+        <v>549.926022222481</v>
       </c>
       <c r="T4">
-        <v>36.90509540863007</v>
+        <v>492.4647679696572</v>
       </c>
       <c r="U4">
-        <v>184.5252309547193</v>
+        <v>101.5741293346428</v>
       </c>
       <c r="V4">
-        <v>240.1335077714618</v>
+        <v>141.8214163456309</v>
       </c>
       <c r="W4">
-        <v>543.4392389653385</v>
+        <v>335.9267322093562</v>
       </c>
       <c r="X4">
-        <v>0.4500000000000001</v>
+        <v>0.2499999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="B5">
         <v>0.25</v>
@@ -653,16 +653,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G5">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -671,54 +671,54 @@
         <v>43</v>
       </c>
       <c r="J5">
-        <v>1283.051142168629</v>
+        <v>554.1443267160944</v>
       </c>
       <c r="K5">
-        <v>1249.295184063782</v>
+        <v>533.238885959234</v>
       </c>
       <c r="L5">
-        <v>31.29595810484676</v>
+        <v>19.79122635686036</v>
       </c>
       <c r="M5">
-        <v>2.46</v>
+        <v>1.1142144</v>
       </c>
       <c r="N5">
-        <v>962.2952315711298</v>
+        <v>1464.391994116818</v>
       </c>
       <c r="O5">
-        <v>9.727353755225749</v>
+        <v>9.179206680728973</v>
       </c>
       <c r="P5">
-        <v>137.6483659814776</v>
+        <v>138.2318491052929</v>
       </c>
       <c r="Q5">
-        <v>5.615591601379398</v>
+        <v>6.234152759322683</v>
       </c>
       <c r="R5">
-        <v>108.1334816408902</v>
+        <v>118.5358410956972</v>
       </c>
       <c r="S5">
-        <v>531.8347130624485</v>
+        <v>554.8691693743444</v>
       </c>
       <c r="T5">
-        <v>41.22471457898089</v>
+        <v>509.2414612765857</v>
       </c>
       <c r="U5">
-        <v>159.3885334940901</v>
+        <v>106.6014688267687</v>
       </c>
       <c r="V5">
-        <v>219.4870442201999</v>
+        <v>146.9378395453714</v>
       </c>
       <c r="W5">
-        <v>550.7461758828314</v>
+        <v>338.8694811169528</v>
       </c>
       <c r="X5">
-        <v>0.4000000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="B6">
         <v>0.25</v>
@@ -727,16 +727,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G6">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -745,54 +745,54 @@
         <v>43</v>
       </c>
       <c r="J6">
-        <v>1294.392472269773</v>
+        <v>559.5771289216988</v>
       </c>
       <c r="K6">
-        <v>1260.636514164927</v>
+        <v>538.6716881648384</v>
       </c>
       <c r="L6">
-        <v>31.29595810484676</v>
+        <v>19.79122635686036</v>
       </c>
       <c r="M6">
-        <v>2.46</v>
+        <v>1.1142144</v>
       </c>
       <c r="N6">
-        <v>959.2517599254552</v>
+        <v>1438.505114977647</v>
       </c>
       <c r="O6">
-        <v>9.562431146869789</v>
+        <v>8.815493355905918</v>
       </c>
       <c r="P6">
-        <v>138.0942799613736</v>
+        <v>138.5056523615593</v>
       </c>
       <c r="Q6">
-        <v>5.525333822265452</v>
+        <v>5.948017605566745</v>
       </c>
       <c r="R6">
-        <v>108.3906769135741</v>
+        <v>118.2325314536038</v>
       </c>
       <c r="S6">
-        <v>529.1223098497092</v>
+        <v>549.0701955083078</v>
       </c>
       <c r="T6">
-        <v>40.44940036234541</v>
+        <v>489.8394808859332</v>
       </c>
       <c r="U6">
-        <v>159.3885334940901</v>
+        <v>106.6014688267687</v>
       </c>
       <c r="V6">
-        <v>219.4870442201999</v>
+        <v>146.9378395453714</v>
       </c>
       <c r="W6">
-        <v>543.8787452749458</v>
+        <v>337.897347729275</v>
       </c>
       <c r="X6">
-        <v>0.4500000000000001</v>
+        <v>0.2499999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="B7">
         <v>0.25</v>
@@ -801,16 +801,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="E7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="G7">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="H7">
         <v>14</v>
@@ -819,54 +819,54 @@
         <v>43</v>
       </c>
       <c r="J7">
-        <v>1219.940197258363</v>
+        <v>560.6961037843012</v>
       </c>
       <c r="K7">
-        <v>1185.838750097445</v>
+        <v>539.7906630274408</v>
       </c>
       <c r="L7">
-        <v>31.60700716091811</v>
+        <v>19.79122635686036</v>
       </c>
       <c r="M7">
-        <v>2.49444</v>
+        <v>1.1142144</v>
       </c>
       <c r="N7">
-        <v>965.3806796883271</v>
+        <v>1429.262969767839</v>
       </c>
       <c r="O7">
-        <v>9.584778148736143</v>
+        <v>8.43635818222816</v>
       </c>
       <c r="P7">
-        <v>138.3779237178154</v>
+        <v>138.4311255308627</v>
       </c>
       <c r="Q7">
-        <v>5.539564288551399</v>
+        <v>5.590349845198026</v>
       </c>
       <c r="R7">
-        <v>108.5387143243411</v>
+        <v>116.9745409846868</v>
       </c>
       <c r="S7">
-        <v>531.5379328654174</v>
+        <v>560.8567354255031</v>
       </c>
       <c r="T7">
-        <v>43.69443847414803</v>
+        <v>470.8862707125388</v>
       </c>
       <c r="U7">
-        <v>171.9568822244047</v>
+        <v>106.6014688267687</v>
       </c>
       <c r="V7">
-        <v>227.3342647296412</v>
+        <v>146.9378395453714</v>
       </c>
       <c r="W7">
-        <v>517.6864421981743</v>
+        <v>346.3163125864314</v>
       </c>
       <c r="X7">
-        <v>0.4500000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8">
-        <v>655</v>
+        <v>615</v>
       </c>
       <c r="B8">
         <v>0.25</v>
@@ -875,16 +875,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G8">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="H8">
         <v>14</v>
@@ -893,54 +893,54 @@
         <v>43</v>
       </c>
       <c r="J8">
-        <v>1164.810423069625</v>
+        <v>566.0764805481858</v>
       </c>
       <c r="K8">
-        <v>1130.765309654701</v>
+        <v>545.1710397913255</v>
       </c>
       <c r="L8">
-        <v>31.56543341492457</v>
+        <v>19.79122635686036</v>
       </c>
       <c r="M8">
-        <v>2.47968</v>
+        <v>1.1142144</v>
       </c>
       <c r="N8">
-        <v>968.1998913278404</v>
+        <v>1404.26782405232</v>
       </c>
       <c r="O8">
-        <v>9.538400920224602</v>
+        <v>8.095966593655625</v>
       </c>
       <c r="P8">
-        <v>137.7892715403534</v>
+        <v>138.7786924327052</v>
       </c>
       <c r="Q8">
-        <v>5.514846575746873</v>
+        <v>5.335645933400047</v>
       </c>
       <c r="R8">
-        <v>108.2815796577646</v>
+        <v>116.790196006191</v>
       </c>
       <c r="S8">
-        <v>530.5054293462246</v>
+        <v>554.8071182073784</v>
       </c>
       <c r="T8">
-        <v>48.46303541820876</v>
+        <v>452.3783819873657</v>
       </c>
       <c r="U8">
-        <v>184.5252309547193</v>
+        <v>106.6014688267687</v>
       </c>
       <c r="V8">
-        <v>235.1899244839787</v>
+        <v>146.9378395453714</v>
       </c>
       <c r="W8">
-        <v>496.1689263275204</v>
+        <v>345.1946270097781</v>
       </c>
       <c r="X8">
-        <v>0.4500000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>660</v>
+        <v>605</v>
       </c>
       <c r="B9">
         <v>0.25</v>
@@ -949,16 +949,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G9">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="H9">
         <v>14</v>
@@ -967,54 +967,54 @@
         <v>43</v>
       </c>
       <c r="J9">
-        <v>1153.327872328473</v>
+        <v>571.5806825915212</v>
       </c>
       <c r="K9">
-        <v>1120.326336503647</v>
+        <v>550.6752418346607</v>
       </c>
       <c r="L9">
-        <v>30.61041582482627</v>
+        <v>19.79122635686036</v>
       </c>
       <c r="M9">
-        <v>2.39112</v>
+        <v>1.1142144</v>
       </c>
       <c r="N9">
-        <v>968.8353540919769</v>
+        <v>1379.458178880687</v>
       </c>
       <c r="O9">
-        <v>9.73349931451812</v>
+        <v>7.754661671218771</v>
       </c>
       <c r="P9">
-        <v>137.7247654766706</v>
+        <v>138.9833536543805</v>
       </c>
       <c r="Q9">
-        <v>5.651596381219235</v>
+        <v>5.082542714347167</v>
       </c>
       <c r="R9">
-        <v>108.5003648786064</v>
+        <v>116.5236776010579</v>
       </c>
       <c r="S9">
-        <v>526.9092600392337</v>
+        <v>548.7251855190407</v>
       </c>
       <c r="T9">
-        <v>52.20485705100144</v>
+        <v>434.3123374583706</v>
       </c>
       <c r="U9">
-        <v>159.3885334940901</v>
+        <v>106.6014688267687</v>
       </c>
       <c r="V9">
-        <v>214.5368872473836</v>
+        <v>146.9378395453714</v>
       </c>
       <c r="W9">
-        <v>493.3455735012334</v>
+        <v>344.1432634568271</v>
       </c>
       <c r="X9">
-        <v>0.4500000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="B10">
         <v>0.25</v>
@@ -1023,16 +1023,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F10">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G10">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="H10">
         <v>14</v>
@@ -1041,54 +1041,54 @@
         <v>43</v>
       </c>
       <c r="J10">
-        <v>1252.759744063048</v>
+        <v>577.1976133719123</v>
       </c>
       <c r="K10">
-        <v>1218.904909092827</v>
+        <v>556.2921726150519</v>
       </c>
       <c r="L10">
-        <v>31.41943497022121</v>
+        <v>19.79122635686036</v>
       </c>
       <c r="M10">
-        <v>2.4354</v>
+        <v>1.1142144</v>
       </c>
       <c r="N10">
-        <v>963.4751441084468</v>
+        <v>1368.103325644772</v>
       </c>
       <c r="O10">
-        <v>9.381732055482956</v>
+        <v>7.618360446192396</v>
       </c>
       <c r="P10">
-        <v>138.3202191685995</v>
+        <v>139.5856830403073</v>
       </c>
       <c r="Q10">
-        <v>5.440745839684746</v>
+        <v>4.984499205191034</v>
       </c>
       <c r="R10">
-        <v>108.7028500179728</v>
+        <v>116.7251431204331</v>
       </c>
       <c r="S10">
-        <v>524.6726516707238</v>
+        <v>545.6718797183891</v>
       </c>
       <c r="T10">
-        <v>48.85318188815273</v>
+        <v>425.4439121651333</v>
       </c>
       <c r="U10">
-        <v>146.8201847637754</v>
+        <v>106.6014688267687</v>
       </c>
       <c r="V10">
-        <v>206.694342813402</v>
+        <v>146.9378395453714</v>
       </c>
       <c r="W10">
-        <v>514.2676244503986</v>
+        <v>343.1560008817257</v>
       </c>
       <c r="X10">
-        <v>0.4500000000000001</v>
+        <v>0.2499999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="B11">
         <v>0.25</v>
@@ -1097,16 +1097,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="E11">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G11">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="H11">
         <v>14</v>
@@ -1115,54 +1115,54 @@
         <v>43</v>
       </c>
       <c r="J11">
-        <v>1447.539902275263</v>
+        <v>532.4003287640579</v>
       </c>
       <c r="K11">
-        <v>1407.554321750104</v>
+        <v>512.3550128496192</v>
       </c>
       <c r="L11">
-        <v>37.06310052515893</v>
+        <v>18.99463431443865</v>
       </c>
       <c r="M11">
-        <v>2.92248</v>
+        <v>1.0506816</v>
       </c>
       <c r="N11">
-        <v>954.7303276558595</v>
+        <v>1690.16877033776</v>
       </c>
       <c r="O11">
-        <v>9.374211841662092</v>
+        <v>10.13273366160865</v>
       </c>
       <c r="P11">
-        <v>138.2227477813352</v>
+        <v>137.6156291789865</v>
       </c>
       <c r="Q11">
-        <v>5.432323022598498</v>
+        <v>7.453955040397476</v>
       </c>
       <c r="R11">
-        <v>108.6133831776298</v>
+        <v>123.8210025806685</v>
       </c>
       <c r="S11">
-        <v>527.7709708037951</v>
+        <v>577.2858894329381</v>
       </c>
       <c r="T11">
-        <v>37.21292756100852</v>
+        <v>705.7408108894241</v>
       </c>
       <c r="U11">
-        <v>159.3885334940901</v>
+        <v>101.5741293346428</v>
       </c>
       <c r="V11">
-        <v>224.4394510102475</v>
+        <v>139.8397816774496</v>
       </c>
       <c r="W11">
-        <v>554.5830528508558</v>
+        <v>324.0430216255142</v>
       </c>
       <c r="X11">
-        <v>0.4500000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="B12">
         <v>0.25</v>
@@ -1171,16 +1171,16 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F12">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="G12">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="H12">
         <v>14</v>
@@ -1189,54 +1189,54 @@
         <v>43</v>
       </c>
       <c r="J12">
-        <v>1082.251856622559</v>
+        <v>537.6507934852677</v>
       </c>
       <c r="K12">
-        <v>1049.249488470255</v>
+        <v>517.6054775708291</v>
       </c>
       <c r="L12">
-        <v>30.61452815230435</v>
+        <v>18.99463431443865</v>
       </c>
       <c r="M12">
-        <v>2.38784</v>
+        <v>1.0506816</v>
       </c>
       <c r="N12">
-        <v>981.5587399604279</v>
+        <v>1624.615619040126</v>
       </c>
       <c r="O12">
-        <v>10.11460925250724</v>
+        <v>9.345975572769609</v>
       </c>
       <c r="P12">
-        <v>137.3993854961836</v>
+        <v>137.8567703815327</v>
       </c>
       <c r="Q12">
-        <v>5.881248326038307</v>
+        <v>6.731338740423084</v>
       </c>
       <c r="R12">
-        <v>108.4378492707107</v>
+        <v>122.4114783564201</v>
       </c>
       <c r="S12">
-        <v>532.0245879637168</v>
+        <v>565.6418383044506</v>
       </c>
       <c r="T12">
-        <v>59.58231009753469</v>
+        <v>654.5244542166994</v>
       </c>
       <c r="U12">
-        <v>171.9568822244047</v>
+        <v>101.5741293346428</v>
       </c>
       <c r="V12">
-        <v>222.3887015852363</v>
+        <v>139.8397816774496</v>
       </c>
       <c r="W12">
-        <v>477.0807337817256</v>
+        <v>323.0783419612219</v>
       </c>
       <c r="X12">
-        <v>0.4000000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="B13">
         <v>0.25</v>
@@ -1245,16 +1245,16 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F13">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="G13">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="H13">
         <v>14</v>
@@ -1263,54 +1263,54 @@
         <v>43</v>
       </c>
       <c r="J13">
-        <v>1097.029274101413</v>
+        <v>530.2797304303227</v>
       </c>
       <c r="K13">
-        <v>1064.026905949108</v>
+        <v>510.3297356971366</v>
       </c>
       <c r="L13">
-        <v>30.61452815230435</v>
+        <v>18.91423153318611</v>
       </c>
       <c r="M13">
-        <v>2.38784</v>
+        <v>1.0357632</v>
       </c>
       <c r="N13">
-        <v>978.2297731833371</v>
+        <v>1840.223786618305</v>
       </c>
       <c r="O13">
-        <v>9.948026847717392</v>
+        <v>10.31503833545808</v>
       </c>
       <c r="P13">
-        <v>137.8669869036334</v>
+        <v>137.314706100227</v>
       </c>
       <c r="Q13">
-        <v>5.78868620298049</v>
+        <v>8.012432195896611</v>
       </c>
       <c r="R13">
-        <v>108.6984107455806</v>
+        <v>127.7138210989198</v>
       </c>
       <c r="S13">
-        <v>529.3517642338932</v>
+        <v>576.6204521107264</v>
       </c>
       <c r="T13">
-        <v>58.46108147419515</v>
+        <v>852.12452312757</v>
       </c>
       <c r="U13">
-        <v>171.9568822244047</v>
+        <v>101.5741293346428</v>
       </c>
       <c r="V13">
-        <v>222.3887015852363</v>
+        <v>137.858693288253</v>
       </c>
       <c r="W13">
-        <v>472.2847117124432</v>
+        <v>308.9602354217433</v>
       </c>
       <c r="X13">
-        <v>0.4500000000000001</v>
+        <v>0.2499999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14">
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="B14">
         <v>0.25</v>
@@ -1319,16 +1319,16 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F14">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G14">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="H14">
         <v>14</v>
@@ -1337,54 +1337,54 @@
         <v>43</v>
       </c>
       <c r="J14">
-        <v>1104.455356880555</v>
+        <v>530.2002089398794</v>
       </c>
       <c r="K14">
-        <v>1070.274332722811</v>
+        <v>509.9257579595404</v>
       </c>
       <c r="L14">
-        <v>31.7079041577438</v>
+        <v>19.22209898033897</v>
       </c>
       <c r="M14">
-        <v>2.47312</v>
+        <v>1.052352</v>
       </c>
       <c r="N14">
-        <v>977.6120638347002</v>
+        <v>1884.428306316733</v>
       </c>
       <c r="O14">
-        <v>9.533113037502051</v>
+        <v>11.36459837553113</v>
       </c>
       <c r="P14">
-        <v>137.7221540394009</v>
+        <v>137.008116221863</v>
       </c>
       <c r="Q14">
-        <v>5.527032874533527</v>
+        <v>8.985902804270268</v>
       </c>
       <c r="R14">
-        <v>108.408351900006</v>
+        <v>128.9257290357833</v>
       </c>
       <c r="S14">
-        <v>530.0452122575408</v>
+        <v>578.0009367037251</v>
       </c>
       <c r="T14">
-        <v>58.26887185639907</v>
+        <v>891.9977550867654</v>
       </c>
       <c r="U14">
-        <v>171.9568822244047</v>
+        <v>96.54678984251696</v>
       </c>
       <c r="V14">
-        <v>222.3887015852363</v>
+        <v>134.7234514480904</v>
       </c>
       <c r="W14">
-        <v>473.6095524095871</v>
+        <v>309.0608627485884</v>
       </c>
       <c r="X14">
-        <v>0.4000000000000001</v>
+        <v>0.2499999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="B15">
         <v>0.25</v>
@@ -1393,16 +1393,16 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F15">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G15">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="H15">
         <v>14</v>
@@ -1411,54 +1411,54 @@
         <v>43</v>
       </c>
       <c r="J15">
-        <v>1120.079004583703</v>
+        <v>525.6852919662576</v>
       </c>
       <c r="K15">
-        <v>1085.89798042596</v>
+        <v>505.4108409859186</v>
       </c>
       <c r="L15">
-        <v>31.7079041577438</v>
+        <v>19.22209898033897</v>
       </c>
       <c r="M15">
-        <v>2.47312</v>
+        <v>1.052352</v>
       </c>
       <c r="N15">
-        <v>974.2002967423076</v>
+        <v>1901.468187610981</v>
       </c>
       <c r="O15">
-        <v>9.369331117025238</v>
+        <v>11.34697025401822</v>
       </c>
       <c r="P15">
-        <v>138.1594874788303</v>
+        <v>136.8215340067141</v>
       </c>
       <c r="Q15">
-        <v>5.43669928831654</v>
+        <v>8.831122203187308</v>
       </c>
       <c r="R15">
-        <v>108.6598677043963</v>
+        <v>127.5819468574777</v>
       </c>
       <c r="S15">
-        <v>527.3212740079506</v>
+        <v>596.7435911140228</v>
       </c>
       <c r="T15">
-        <v>57.14987367795841</v>
+        <v>891.9977550867654</v>
       </c>
       <c r="U15">
-        <v>171.9568822244047</v>
+        <v>96.54678984251696</v>
       </c>
       <c r="V15">
-        <v>222.3887015852363</v>
+        <v>134.7234514480904</v>
       </c>
       <c r="W15">
-        <v>468.9665009848332</v>
+        <v>317.6896647455183</v>
       </c>
       <c r="X15">
-        <v>0.4500000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B16">
         <v>0.25</v>
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F16">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G16">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="H16">
         <v>14</v>
@@ -1485,641 +1485,49 @@
         <v>43</v>
       </c>
       <c r="J16">
-        <v>1038.174314522521</v>
+        <v>530.7974323550033</v>
       </c>
       <c r="K16">
-        <v>1005.262219333845</v>
+        <v>510.5229813746643</v>
       </c>
       <c r="L16">
-        <v>30.5504951886766</v>
+        <v>19.22209898033897</v>
       </c>
       <c r="M16">
-        <v>2.3616</v>
+        <v>1.052352</v>
       </c>
       <c r="N16">
-        <v>993.6173872665277</v>
+        <v>1806.539315190621</v>
       </c>
       <c r="O16">
-        <v>10.1625084287244</v>
+        <v>10.31730970648626</v>
       </c>
       <c r="P16">
-        <v>137.9708741560601</v>
+        <v>137.3412607799874</v>
       </c>
       <c r="Q16">
-        <v>5.945322472470894</v>
+        <v>7.805796256705115</v>
       </c>
       <c r="R16">
-        <v>109.0645792317249</v>
+        <v>125.7331330359947</v>
       </c>
       <c r="S16">
-        <v>530.1020287855192</v>
+        <v>582.328579940017</v>
       </c>
       <c r="T16">
-        <v>72.2533246382915</v>
+        <v>814.8904218219235</v>
       </c>
       <c r="U16">
-        <v>159.3885334940901</v>
+        <v>96.54678984251696</v>
       </c>
       <c r="V16">
-        <v>209.5891426045563</v>
+        <v>134.7234514480904</v>
       </c>
       <c r="W16">
-        <v>450.8374683746744</v>
+        <v>316.6376126596555</v>
       </c>
       <c r="X16">
-        <v>0.4000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17">
-        <v>660</v>
-      </c>
-      <c r="B17">
-        <v>0.25</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>150</v>
-      </c>
-      <c r="E17">
-        <v>40</v>
-      </c>
-      <c r="F17">
-        <v>60</v>
-      </c>
-      <c r="G17">
-        <v>1.25</v>
-      </c>
-      <c r="H17">
-        <v>14</v>
-      </c>
-      <c r="I17">
-        <v>43</v>
-      </c>
-      <c r="J17">
-        <v>1053.415848080603</v>
-      </c>
-      <c r="K17">
-        <v>1020.503752891926</v>
-      </c>
-      <c r="L17">
-        <v>30.5504951886766</v>
-      </c>
-      <c r="M17">
-        <v>2.3616</v>
-      </c>
-      <c r="N17">
-        <v>984.6323902650124</v>
-      </c>
-      <c r="O17">
-        <v>9.743778953651642</v>
-      </c>
-      <c r="P17">
-        <v>137.8525584411843</v>
-      </c>
-      <c r="Q17">
-        <v>5.693967805314069</v>
-      </c>
-      <c r="R17">
-        <v>108.9321232542362</v>
-      </c>
-      <c r="S17">
-        <v>524.7691302395464</v>
-      </c>
-      <c r="T17">
-        <v>69.52982062035238</v>
-      </c>
-      <c r="U17">
-        <v>159.3885334940901</v>
-      </c>
-      <c r="V17">
-        <v>209.5891426045563</v>
-      </c>
-      <c r="W17">
-        <v>446.536547197641</v>
-      </c>
-      <c r="X17">
-        <v>0.4500000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18">
-        <v>685</v>
-      </c>
-      <c r="B18">
-        <v>0.25</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>155</v>
-      </c>
-      <c r="E18">
-        <v>35</v>
-      </c>
-      <c r="F18">
-        <v>55</v>
-      </c>
-      <c r="G18">
-        <v>1.35</v>
-      </c>
-      <c r="H18">
-        <v>14</v>
-      </c>
-      <c r="I18">
-        <v>43</v>
-      </c>
-      <c r="J18">
-        <v>955.5720752617736</v>
-      </c>
-      <c r="K18">
-        <v>927.6273945447501</v>
-      </c>
-      <c r="L18">
-        <v>25.98734071702344</v>
-      </c>
-      <c r="M18">
-        <v>1.95734</v>
-      </c>
-      <c r="N18">
-        <v>1068.194861313636</v>
-      </c>
-      <c r="O18">
-        <v>10.71822517690421</v>
-      </c>
-      <c r="P18">
-        <v>137.0901151943435</v>
-      </c>
-      <c r="Q18">
-        <v>6.467404779018615</v>
-      </c>
-      <c r="R18">
-        <v>110.4716374437152</v>
-      </c>
-      <c r="S18">
-        <v>563.1333302038814</v>
-      </c>
-      <c r="T18">
-        <v>112.1827944676462</v>
-      </c>
-      <c r="U18">
-        <v>146.8201847637754</v>
-      </c>
-      <c r="V18">
-        <v>191.8440605013734</v>
-      </c>
-      <c r="W18">
-        <v>423.4808916344624</v>
-      </c>
-      <c r="X18">
-        <v>0.4000000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19">
-        <v>750</v>
-      </c>
-      <c r="B19">
-        <v>0.25</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>155</v>
-      </c>
-      <c r="E19">
-        <v>35</v>
-      </c>
-      <c r="F19">
-        <v>60</v>
-      </c>
-      <c r="G19">
-        <v>1.3</v>
-      </c>
-      <c r="H19">
-        <v>14</v>
-      </c>
-      <c r="I19">
-        <v>43</v>
-      </c>
-      <c r="J19">
-        <v>947.9562545049229</v>
-      </c>
-      <c r="K19">
-        <v>917.7433256667665</v>
-      </c>
-      <c r="L19">
-        <v>28.07764883815645</v>
-      </c>
-      <c r="M19">
-        <v>2.13528</v>
-      </c>
-      <c r="N19">
-        <v>1106.356465705571</v>
-      </c>
-      <c r="O19">
-        <v>13.99990065337728</v>
-      </c>
-      <c r="P19">
-        <v>137.8549164253893</v>
-      </c>
-      <c r="Q19">
-        <v>8.30446923127443</v>
-      </c>
-      <c r="R19">
-        <v>110.6542369263197</v>
-      </c>
-      <c r="S19">
-        <v>583.7867341567384</v>
-      </c>
-      <c r="T19">
-        <v>123.5531639049696</v>
-      </c>
-      <c r="U19">
-        <v>159.3885334940901</v>
-      </c>
-      <c r="V19">
-        <v>204.6439887510605</v>
-      </c>
-      <c r="W19">
-        <v>438.0129683962067</v>
-      </c>
-      <c r="X19">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20">
-        <v>690</v>
-      </c>
-      <c r="B20">
-        <v>0.25</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>155</v>
-      </c>
-      <c r="E20">
-        <v>35</v>
-      </c>
-      <c r="F20">
-        <v>60</v>
-      </c>
-      <c r="G20">
-        <v>1.3</v>
-      </c>
-      <c r="H20">
-        <v>14</v>
-      </c>
-      <c r="I20">
-        <v>43</v>
-      </c>
-      <c r="J20">
-        <v>962.1734039526091</v>
-      </c>
-      <c r="K20">
-        <v>931.9604751144526</v>
-      </c>
-      <c r="L20">
-        <v>28.07764883815645</v>
-      </c>
-      <c r="M20">
-        <v>2.13528</v>
-      </c>
-      <c r="N20">
-        <v>1043.696525682212</v>
-      </c>
-      <c r="O20">
-        <v>10.93471665691701</v>
-      </c>
-      <c r="P20">
-        <v>137.1033624713802</v>
-      </c>
-      <c r="Q20">
-        <v>6.504885526685499</v>
-      </c>
-      <c r="R20">
-        <v>109.6423941709322</v>
-      </c>
-      <c r="S20">
-        <v>551.9580736104976</v>
-      </c>
-      <c r="T20">
-        <v>99.41725334830912</v>
-      </c>
-      <c r="U20">
-        <v>159.3885334940901</v>
-      </c>
-      <c r="V20">
-        <v>204.6439887510605</v>
-      </c>
-      <c r="W20">
-        <v>433.3212694549993</v>
-      </c>
-      <c r="X20">
-        <v>0.3500000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21">
-        <v>660</v>
-      </c>
-      <c r="B21">
-        <v>0.25</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>155</v>
-      </c>
-      <c r="E21">
-        <v>35</v>
-      </c>
-      <c r="F21">
-        <v>60</v>
-      </c>
-      <c r="G21">
-        <v>1.3</v>
-      </c>
-      <c r="H21">
-        <v>14</v>
-      </c>
-      <c r="I21">
-        <v>43</v>
-      </c>
-      <c r="J21">
-        <v>977.4708417039431</v>
-      </c>
-      <c r="K21">
-        <v>947.2579128657867</v>
-      </c>
-      <c r="L21">
-        <v>28.07764883815645</v>
-      </c>
-      <c r="M21">
-        <v>2.13528</v>
-      </c>
-      <c r="N21">
-        <v>1015.068642804235</v>
-      </c>
-      <c r="O21">
-        <v>9.739740302213134</v>
-      </c>
-      <c r="P21">
-        <v>137.8023513051885</v>
-      </c>
-      <c r="Q21">
-        <v>5.737203009718977</v>
-      </c>
-      <c r="R21">
-        <v>109.372683420024</v>
-      </c>
-      <c r="S21">
-        <v>535.7051252114212</v>
-      </c>
-      <c r="T21">
-        <v>88.60052860494166</v>
-      </c>
-      <c r="U21">
-        <v>159.3885334940901</v>
-      </c>
-      <c r="V21">
-        <v>204.6439887510605</v>
-      </c>
-      <c r="W21">
-        <v>429.1560531613935</v>
-      </c>
-      <c r="X21">
-        <v>0.4000000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="A22">
-        <v>650</v>
-      </c>
-      <c r="B22">
-        <v>0.25</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>155</v>
-      </c>
-      <c r="E22">
-        <v>35</v>
-      </c>
-      <c r="F22">
-        <v>60</v>
-      </c>
-      <c r="G22">
-        <v>1.3</v>
-      </c>
-      <c r="H22">
-        <v>14</v>
-      </c>
-      <c r="I22">
-        <v>43</v>
-      </c>
-      <c r="J22">
-        <v>993.6502784475517</v>
-      </c>
-      <c r="K22">
-        <v>963.4373496093954</v>
-      </c>
-      <c r="L22">
-        <v>28.07764883815645</v>
-      </c>
-      <c r="M22">
-        <v>2.13528</v>
-      </c>
-      <c r="N22">
-        <v>1006.63458338925</v>
-      </c>
-      <c r="O22">
-        <v>9.400544492464155</v>
-      </c>
-      <c r="P22">
-        <v>138.5640519071438</v>
-      </c>
-      <c r="Q22">
-        <v>5.528126179456359</v>
-      </c>
-      <c r="R22">
-        <v>109.6310006387696</v>
-      </c>
-      <c r="S22">
-        <v>530.2339983011793</v>
-      </c>
-      <c r="T22">
-        <v>85.17309840240664</v>
-      </c>
-      <c r="U22">
-        <v>159.3885334940901</v>
-      </c>
-      <c r="V22">
-        <v>204.6439887510605</v>
-      </c>
-      <c r="W22">
-        <v>425.4300663109669</v>
-      </c>
-      <c r="X22">
-        <v>0.4500000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23">
-        <v>670</v>
-      </c>
-      <c r="B23">
-        <v>0.25</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>155</v>
-      </c>
-      <c r="E23">
-        <v>35</v>
-      </c>
-      <c r="F23">
-        <v>65</v>
-      </c>
-      <c r="G23">
-        <v>1.25</v>
-      </c>
-      <c r="H23">
-        <v>14</v>
-      </c>
-      <c r="I23">
-        <v>43</v>
-      </c>
-      <c r="J23">
-        <v>1011.553009024229</v>
-      </c>
-      <c r="K23">
-        <v>979.0505041708819</v>
-      </c>
-      <c r="L23">
-        <v>30.18928485334721</v>
-      </c>
-      <c r="M23">
-        <v>2.31322</v>
-      </c>
-      <c r="N23">
-        <v>998.3831308653771</v>
-      </c>
-      <c r="O23">
-        <v>10.11500315013903</v>
-      </c>
-      <c r="P23">
-        <v>137.4040851183379</v>
-      </c>
-      <c r="Q23">
-        <v>5.949205977915384</v>
-      </c>
-      <c r="R23">
-        <v>109.1025650552019</v>
-      </c>
-      <c r="S23">
-        <v>526.5193139246256</v>
-      </c>
-      <c r="T23">
-        <v>81.17420808542066</v>
-      </c>
-      <c r="U23">
-        <v>171.9568822244047</v>
-      </c>
-      <c r="V23">
-        <v>217.4456749569814</v>
-      </c>
-      <c r="W23">
-        <v>430.105869761103</v>
-      </c>
-      <c r="X23">
-        <v>0.4500000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
-      <c r="A24">
-        <v>740</v>
-      </c>
-      <c r="B24">
-        <v>0.25</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>155</v>
-      </c>
-      <c r="E24">
-        <v>40</v>
-      </c>
-      <c r="F24">
-        <v>60</v>
-      </c>
-      <c r="G24">
-        <v>1.2</v>
-      </c>
-      <c r="H24">
-        <v>14</v>
-      </c>
-      <c r="I24">
-        <v>43</v>
-      </c>
-      <c r="J24">
-        <v>970.0396488558117</v>
-      </c>
-      <c r="K24">
-        <v>936.0304838275125</v>
-      </c>
-      <c r="L24">
-        <v>31.56884502829915</v>
-      </c>
-      <c r="M24">
-        <v>2.44032</v>
-      </c>
-      <c r="N24">
-        <v>1036.874484970094</v>
-      </c>
-      <c r="O24">
-        <v>13.52668584719572</v>
-      </c>
-      <c r="P24">
-        <v>138.1218490736828</v>
-      </c>
-      <c r="Q24">
-        <v>7.908751995664925</v>
-      </c>
-      <c r="R24">
-        <v>109.9277303865736</v>
-      </c>
-      <c r="S24">
-        <v>542.822517424677</v>
-      </c>
-      <c r="T24">
-        <v>96.37704981565618</v>
-      </c>
-      <c r="U24">
-        <v>159.3885334940901</v>
-      </c>
-      <c r="V24">
-        <v>209.5891426045563</v>
-      </c>
-      <c r="W24">
-        <v>436.4801453061576</v>
-      </c>
-      <c r="X24">
-        <v>0.3500000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>

--- a/Codemig/System/Optimization_35.xlsx
+++ b/Codemig/System/Optimization_35.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="B1">
         <v>0.25</v>
@@ -357,16 +357,16 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F1">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G1">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H1">
         <v>14</v>
@@ -375,54 +375,54 @@
         <v>43</v>
       </c>
       <c r="J1">
-        <v>538.3246462633241</v>
+        <v>733.711815901562</v>
       </c>
       <c r="K1">
-        <v>518.3101253207283</v>
+        <v>712.9799079913292</v>
       </c>
       <c r="L1">
-        <v>18.95744574259584</v>
+        <v>19.02073191023274</v>
       </c>
       <c r="M1">
-        <v>1.0570752</v>
+        <v>1.711176</v>
       </c>
       <c r="N1">
-        <v>1566.314532060535</v>
+        <v>1194.191065776792</v>
       </c>
       <c r="O1">
-        <v>9.942127279544305</v>
+        <v>8.98001626114231</v>
       </c>
       <c r="P1">
-        <v>137.795142738593</v>
+        <v>138.1491540934741</v>
       </c>
       <c r="Q1">
-        <v>7.004305712584333</v>
+        <v>5.487134503487794</v>
       </c>
       <c r="R1">
-        <v>120.8336253516346</v>
+        <v>111.7057038811236</v>
       </c>
       <c r="S1">
-        <v>576.453909447176</v>
+        <v>569.9806694382274</v>
       </c>
       <c r="T1">
-        <v>586.1706047556662</v>
+        <v>231.7914124437714</v>
       </c>
       <c r="U1">
-        <v>101.5741293346428</v>
+        <v>126.7108267952721</v>
       </c>
       <c r="V1">
-        <v>141.8214163456309</v>
+        <v>173.3492587062422</v>
       </c>
       <c r="W1">
-        <v>339.0204656163109</v>
+        <v>403.9053525723852</v>
       </c>
       <c r="X1">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="B2">
         <v>0.25</v>
@@ -431,16 +431,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -449,54 +449,54 @@
         <v>43</v>
       </c>
       <c r="J2">
-        <v>543.494749060959</v>
+        <v>740.8782664104443</v>
       </c>
       <c r="K2">
-        <v>523.4802281183631</v>
+        <v>720.1463585002116</v>
       </c>
       <c r="L2">
-        <v>18.95744574259584</v>
+        <v>19.02073191023274</v>
       </c>
       <c r="M2">
-        <v>1.0570752</v>
+        <v>1.711176</v>
       </c>
       <c r="N2">
-        <v>1509.235179899081</v>
+        <v>1171.492965856692</v>
       </c>
       <c r="O2">
-        <v>9.160913866832015</v>
+        <v>8.455787992297887</v>
       </c>
       <c r="P2">
-        <v>137.9896962357639</v>
+        <v>138.7114360872183</v>
       </c>
       <c r="Q2">
-        <v>6.331769626801987</v>
+        <v>5.137011405546033</v>
       </c>
       <c r="R2">
-        <v>119.5947308718566</v>
+        <v>111.6172848899074</v>
       </c>
       <c r="S2">
-        <v>564.7387762993974</v>
+        <v>560.9636260189004</v>
       </c>
       <c r="T2">
-        <v>543.3189791735822</v>
+        <v>218.5202303760006</v>
       </c>
       <c r="U2">
-        <v>101.5741293346428</v>
+        <v>126.7108267952721</v>
       </c>
       <c r="V2">
-        <v>141.8214163456309</v>
+        <v>173.3492587062422</v>
       </c>
       <c r="W2">
-        <v>337.9224105936293</v>
+        <v>402.7162017091214</v>
       </c>
       <c r="X2">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="B3">
         <v>0.25</v>
@@ -505,13 +505,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G3">
         <v>1.42</v>
@@ -523,54 +523,54 @@
         <v>43</v>
       </c>
       <c r="J3">
-        <v>548.7836119346548</v>
+        <v>742.4853964838575</v>
       </c>
       <c r="K3">
-        <v>528.769090992059</v>
+        <v>721.7534885736247</v>
       </c>
       <c r="L3">
-        <v>18.95744574259584</v>
+        <v>19.02073191023274</v>
       </c>
       <c r="M3">
-        <v>1.0570752</v>
+        <v>1.711176</v>
       </c>
       <c r="N3">
-        <v>1482.346290782551</v>
+        <v>1165.763497185956</v>
       </c>
       <c r="O3">
-        <v>8.821198500932967</v>
+        <v>7.918884338222062</v>
       </c>
       <c r="P3">
-        <v>138.5844678961504</v>
+        <v>138.7991557399156</v>
       </c>
       <c r="Q3">
-        <v>6.046329045740623</v>
+        <v>4.739482142449092</v>
       </c>
       <c r="R3">
-        <v>119.3452436717351</v>
+        <v>110.7419912158863</v>
       </c>
       <c r="S3">
-        <v>558.8366545278992</v>
+        <v>569.7708836140338</v>
       </c>
       <c r="T3">
-        <v>522.6186533333229</v>
+        <v>205.7140225115605</v>
       </c>
       <c r="U3">
-        <v>101.5741293346428</v>
+        <v>126.7108267952721</v>
       </c>
       <c r="V3">
-        <v>141.8214163456309</v>
+        <v>173.3492587062422</v>
       </c>
       <c r="W3">
-        <v>336.8931961203305</v>
+        <v>410.816810545133</v>
       </c>
       <c r="X3">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="B4">
         <v>0.25</v>
@@ -579,13 +579,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E4">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G4">
         <v>1.42</v>
@@ -597,54 +597,54 @@
         <v>43</v>
       </c>
       <c r="J4">
-        <v>554.1805926625485</v>
+        <v>749.5989239392525</v>
       </c>
       <c r="K4">
-        <v>534.1660717199527</v>
+        <v>728.8670160290196</v>
       </c>
       <c r="L4">
-        <v>18.95744574259584</v>
+        <v>19.02073191023274</v>
       </c>
       <c r="M4">
-        <v>1.0570752</v>
+        <v>1.711176</v>
       </c>
       <c r="N4">
-        <v>1441.49496461774</v>
+        <v>1151.177059138656</v>
       </c>
       <c r="O4">
-        <v>8.270738786176544</v>
+        <v>7.597819645397776</v>
       </c>
       <c r="P4">
-        <v>138.6874570603249</v>
+        <v>139.2544130275276</v>
       </c>
       <c r="Q4">
-        <v>5.593277704622306</v>
+        <v>4.536416450485149</v>
       </c>
       <c r="R4">
-        <v>118.4680418499621</v>
+        <v>110.8088059070307</v>
       </c>
       <c r="S4">
-        <v>549.926022222481</v>
+        <v>563.4735788358606</v>
       </c>
       <c r="T4">
-        <v>492.4647679696572</v>
+        <v>197.4321773232287</v>
       </c>
       <c r="U4">
-        <v>101.5741293346428</v>
+        <v>126.7108267952721</v>
       </c>
       <c r="V4">
-        <v>141.8214163456309</v>
+        <v>173.3492587062422</v>
       </c>
       <c r="W4">
-        <v>335.9267322093562</v>
+        <v>409.4531608775931</v>
       </c>
       <c r="X4">
-        <v>0.2499999999999999</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5">
-        <v>645</v>
+        <v>595</v>
       </c>
       <c r="B5">
         <v>0.25</v>
@@ -653,16 +653,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G5">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -671,46 +671,46 @@
         <v>43</v>
       </c>
       <c r="J5">
-        <v>554.1443267160944</v>
+        <v>756.8780369929584</v>
       </c>
       <c r="K5">
-        <v>533.238885959234</v>
+        <v>736.1461290827257</v>
       </c>
       <c r="L5">
-        <v>19.79122635686036</v>
+        <v>19.02073191023274</v>
       </c>
       <c r="M5">
-        <v>1.1142144</v>
+        <v>1.711176</v>
       </c>
       <c r="N5">
-        <v>1464.391994116818</v>
+        <v>1144.616587040706</v>
       </c>
       <c r="O5">
-        <v>9.179206680728973</v>
+        <v>7.4628701272706</v>
       </c>
       <c r="P5">
-        <v>138.2318491052929</v>
+        <v>139.8578735412051</v>
       </c>
       <c r="Q5">
-        <v>6.234152759322683</v>
+        <v>4.455272204693885</v>
       </c>
       <c r="R5">
-        <v>118.5358410956972</v>
+        <v>111.0898383357799</v>
       </c>
       <c r="S5">
-        <v>554.8691693743444</v>
+        <v>560.3120436535174</v>
       </c>
       <c r="T5">
-        <v>509.2414612765857</v>
+        <v>193.367331253708</v>
       </c>
       <c r="U5">
-        <v>106.6014688267687</v>
+        <v>126.7108267952721</v>
       </c>
       <c r="V5">
-        <v>146.9378395453714</v>
+        <v>173.3492587062422</v>
       </c>
       <c r="W5">
-        <v>338.8694811169528</v>
+        <v>408.1742060211981</v>
       </c>
       <c r="X5">
         <v>0.23</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6">
-        <v>635</v>
+        <v>585</v>
       </c>
       <c r="B6">
         <v>0.25</v>
@@ -727,16 +727,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G6">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -745,54 +745,54 @@
         <v>43</v>
       </c>
       <c r="J6">
-        <v>559.5771289216988</v>
+        <v>764.3078919189318</v>
       </c>
       <c r="K6">
-        <v>538.6716881648384</v>
+        <v>743.575984008699</v>
       </c>
       <c r="L6">
-        <v>19.79122635686036</v>
+        <v>19.02073191023274</v>
       </c>
       <c r="M6">
-        <v>1.1142144</v>
+        <v>1.711176</v>
       </c>
       <c r="N6">
-        <v>1438.505114977647</v>
+        <v>1129.287831428452</v>
       </c>
       <c r="O6">
-        <v>8.815493355905918</v>
+        <v>7.116675706566455</v>
       </c>
       <c r="P6">
-        <v>138.5056523615593</v>
+        <v>139.7029481727029</v>
       </c>
       <c r="Q6">
-        <v>5.948017605566745</v>
+        <v>4.23539388523227</v>
       </c>
       <c r="R6">
-        <v>118.2325314536038</v>
+        <v>110.8147090762741</v>
       </c>
       <c r="S6">
-        <v>549.0701955083078</v>
+        <v>553.9627261295097</v>
       </c>
       <c r="T6">
-        <v>489.8394808859332</v>
+        <v>185.3887642893105</v>
       </c>
       <c r="U6">
-        <v>106.6014688267687</v>
+        <v>126.7108267952721</v>
       </c>
       <c r="V6">
-        <v>146.9378395453714</v>
+        <v>173.3492587062422</v>
       </c>
       <c r="W6">
-        <v>337.897347729275</v>
+        <v>406.9724870878865</v>
       </c>
       <c r="X6">
-        <v>0.2499999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
-        <v>625</v>
+        <v>580</v>
       </c>
       <c r="B7">
         <v>0.25</v>
@@ -801,13 +801,13 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>1.42</v>
@@ -819,54 +819,54 @@
         <v>43</v>
       </c>
       <c r="J7">
-        <v>560.6961037843012</v>
+        <v>787.1778150229801</v>
       </c>
       <c r="K7">
-        <v>539.7906630274408</v>
+        <v>765.8657596023659</v>
       </c>
       <c r="L7">
-        <v>19.79122635686036</v>
+        <v>19.58021542061416</v>
       </c>
       <c r="M7">
-        <v>1.1142144</v>
+        <v>1.73184</v>
       </c>
       <c r="N7">
-        <v>1429.262969767839</v>
+        <v>1119.702496511631</v>
       </c>
       <c r="O7">
-        <v>8.43635818222816</v>
+        <v>6.964217280607649</v>
       </c>
       <c r="P7">
-        <v>138.4311255308627</v>
+        <v>139.9192609805971</v>
       </c>
       <c r="Q7">
-        <v>5.590349845198026</v>
+        <v>4.115966407405683</v>
       </c>
       <c r="R7">
-        <v>116.9745409846868</v>
+        <v>110.4982448673921</v>
       </c>
       <c r="S7">
-        <v>560.8567354255031</v>
+        <v>555.3525195089562</v>
       </c>
       <c r="T7">
-        <v>470.8862707125388</v>
+        <v>174.7879320912578</v>
       </c>
       <c r="U7">
-        <v>106.6014688267687</v>
+        <v>119.1698175570833</v>
       </c>
       <c r="V7">
-        <v>146.9378395453714</v>
+        <v>168.6462552310615</v>
       </c>
       <c r="W7">
-        <v>346.3163125864314</v>
+        <v>416.3662058213986</v>
       </c>
       <c r="X7">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="B8">
         <v>0.25</v>
@@ -875,13 +875,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E8">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>1.42</v>
@@ -893,54 +893,54 @@
         <v>43</v>
       </c>
       <c r="J8">
-        <v>566.0764805481858</v>
+        <v>794.9112004882876</v>
       </c>
       <c r="K8">
-        <v>545.1710397913255</v>
+        <v>773.5991450676734</v>
       </c>
       <c r="L8">
-        <v>19.79122635686036</v>
+        <v>19.58021542061416</v>
       </c>
       <c r="M8">
-        <v>1.1142144</v>
+        <v>1.73184</v>
       </c>
       <c r="N8">
-        <v>1404.26782405232</v>
+        <v>1113.149883962005</v>
       </c>
       <c r="O8">
-        <v>8.095966593655625</v>
+        <v>6.824395456715567</v>
       </c>
       <c r="P8">
-        <v>138.7786924327052</v>
+        <v>140.3303123895745</v>
       </c>
       <c r="Q8">
-        <v>5.335645933400047</v>
+        <v>4.034222879210724</v>
       </c>
       <c r="R8">
-        <v>116.790196006191</v>
+        <v>110.7038290707622</v>
       </c>
       <c r="S8">
-        <v>554.8071182073784</v>
+        <v>552.1289500327064</v>
       </c>
       <c r="T8">
-        <v>452.3783819873657</v>
+        <v>171.0660053936456</v>
       </c>
       <c r="U8">
-        <v>106.6014688267687</v>
+        <v>119.1698175570833</v>
       </c>
       <c r="V8">
-        <v>146.9378395453714</v>
+        <v>168.6462552310615</v>
       </c>
       <c r="W8">
-        <v>345.1946270097781</v>
+        <v>415.1403685554821</v>
       </c>
       <c r="X8">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B9">
         <v>0.25</v>
@@ -949,16 +949,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G9">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H9">
         <v>14</v>
@@ -967,54 +967,54 @@
         <v>43</v>
       </c>
       <c r="J9">
-        <v>571.5806825915212</v>
+        <v>783.8138758430692</v>
       </c>
       <c r="K9">
-        <v>550.6752418346607</v>
+        <v>761.2765108685838</v>
       </c>
       <c r="L9">
-        <v>19.79122635686036</v>
+        <v>20.68744497448545</v>
       </c>
       <c r="M9">
-        <v>1.1142144</v>
+        <v>1.84992</v>
       </c>
       <c r="N9">
-        <v>1379.458178880687</v>
+        <v>1121.017936918596</v>
       </c>
       <c r="O9">
-        <v>7.754661671218771</v>
+        <v>7.922672369852761</v>
       </c>
       <c r="P9">
-        <v>138.9833536543805</v>
+        <v>138.8575522316724</v>
       </c>
       <c r="Q9">
-        <v>5.082542714347167</v>
+        <v>4.721261184500028</v>
       </c>
       <c r="R9">
-        <v>116.5236776010579</v>
+        <v>110.511972485983</v>
       </c>
       <c r="S9">
-        <v>548.7251855190407</v>
+        <v>549.5817670947384</v>
       </c>
       <c r="T9">
-        <v>434.3123374583706</v>
+        <v>181.3436339279599</v>
       </c>
       <c r="U9">
-        <v>106.6014688267687</v>
+        <v>126.7108267952721</v>
       </c>
       <c r="V9">
-        <v>146.9378395453714</v>
+        <v>176.3207369561927</v>
       </c>
       <c r="W9">
-        <v>344.1432634568271</v>
+        <v>412.8407573318036</v>
       </c>
       <c r="X9">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B10">
         <v>0.25</v>
@@ -1023,16 +1023,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E10">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H10">
         <v>14</v>
@@ -1041,54 +1041,54 @@
         <v>43</v>
       </c>
       <c r="J10">
-        <v>577.1976133719123</v>
+        <v>801.2695623636188</v>
       </c>
       <c r="K10">
-        <v>556.2921726150519</v>
+        <v>778.7321973891334</v>
       </c>
       <c r="L10">
-        <v>19.79122635686036</v>
+        <v>20.68744497448545</v>
       </c>
       <c r="M10">
-        <v>1.1142144</v>
+        <v>1.84992</v>
       </c>
       <c r="N10">
-        <v>1368.103325644772</v>
+        <v>1110.919395151097</v>
       </c>
       <c r="O10">
-        <v>7.618360446192396</v>
+        <v>7.264750233074864</v>
       </c>
       <c r="P10">
-        <v>139.5856830403073</v>
+        <v>139.3807328693893</v>
       </c>
       <c r="Q10">
-        <v>4.984499205191034</v>
+        <v>4.285788574158719</v>
       </c>
       <c r="R10">
-        <v>116.7251431204331</v>
+        <v>110.1426542850027</v>
       </c>
       <c r="S10">
-        <v>545.6718797183891</v>
+        <v>554.8557263217848</v>
       </c>
       <c r="T10">
-        <v>425.4439121651333</v>
+        <v>166.9207953449311</v>
       </c>
       <c r="U10">
-        <v>106.6014688267687</v>
+        <v>126.7108267952721</v>
       </c>
       <c r="V10">
-        <v>146.9378395453714</v>
+        <v>176.3207369561927</v>
       </c>
       <c r="W10">
-        <v>343.1560008817257</v>
+        <v>420.6454828416251</v>
       </c>
       <c r="X10">
-        <v>0.2499999999999999</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
-        <v>670</v>
+        <v>585</v>
       </c>
       <c r="B11">
         <v>0.25</v>
@@ -1097,16 +1097,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G11">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H11">
         <v>14</v>
@@ -1115,54 +1115,54 @@
         <v>43</v>
       </c>
       <c r="J11">
-        <v>532.4003287640579</v>
+        <v>809.1168934877155</v>
       </c>
       <c r="K11">
-        <v>512.3550128496192</v>
+        <v>786.5795285132301</v>
       </c>
       <c r="L11">
-        <v>18.99463431443865</v>
+        <v>20.68744497448545</v>
       </c>
       <c r="M11">
-        <v>1.0506816</v>
+        <v>1.84992</v>
       </c>
       <c r="N11">
-        <v>1690.16877033776</v>
+        <v>1104.653485368332</v>
       </c>
       <c r="O11">
-        <v>10.13273366160865</v>
+        <v>7.121613050794448</v>
       </c>
       <c r="P11">
-        <v>137.6156291789865</v>
+        <v>139.7882693433309</v>
       </c>
       <c r="Q11">
-        <v>7.453955040397476</v>
+        <v>4.203097939315638</v>
       </c>
       <c r="R11">
-        <v>123.8210025806685</v>
+        <v>110.3579316742379</v>
       </c>
       <c r="S11">
-        <v>577.2858894329381</v>
+        <v>551.6897046507468</v>
       </c>
       <c r="T11">
-        <v>705.7408108894241</v>
+        <v>163.4262545410499</v>
       </c>
       <c r="U11">
-        <v>101.5741293346428</v>
+        <v>126.7108267952721</v>
       </c>
       <c r="V11">
-        <v>139.8397816774496</v>
+        <v>176.3207369561927</v>
       </c>
       <c r="W11">
-        <v>324.0430216255142</v>
+        <v>419.4070468172858</v>
       </c>
       <c r="X11">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="B12">
         <v>0.25</v>
@@ -1171,13 +1171,13 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E12">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G12">
         <v>1.42</v>
@@ -1189,46 +1189,46 @@
         <v>43</v>
       </c>
       <c r="J12">
-        <v>537.6507934852677</v>
+        <v>826.5361693004553</v>
       </c>
       <c r="K12">
-        <v>517.6054775708291</v>
+        <v>803.9988043259699</v>
       </c>
       <c r="L12">
-        <v>18.99463431443865</v>
+        <v>20.68744497448545</v>
       </c>
       <c r="M12">
-        <v>1.0506816</v>
+        <v>1.84992</v>
       </c>
       <c r="N12">
-        <v>1624.615619040126</v>
+        <v>1102.594717835186</v>
       </c>
       <c r="O12">
-        <v>9.345975572769609</v>
+        <v>6.681889483960163</v>
       </c>
       <c r="P12">
-        <v>137.8567703815327</v>
+        <v>140.6660544924998</v>
       </c>
       <c r="Q12">
-        <v>6.731338740423084</v>
+        <v>3.916157698760522</v>
       </c>
       <c r="R12">
-        <v>122.4114783564201</v>
+        <v>110.3463496445108</v>
       </c>
       <c r="S12">
-        <v>565.6418383044506</v>
+        <v>559.7176989153962</v>
       </c>
       <c r="T12">
-        <v>654.5244542166994</v>
+        <v>153.2065156609605</v>
       </c>
       <c r="U12">
-        <v>101.5741293346428</v>
+        <v>126.7108267952721</v>
       </c>
       <c r="V12">
-        <v>139.8397816774496</v>
+        <v>176.3207369561927</v>
       </c>
       <c r="W12">
-        <v>323.0783419612219</v>
+        <v>427.1919346243172</v>
       </c>
       <c r="X12">
         <v>0.23</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13">
-        <v>675</v>
+        <v>560</v>
       </c>
       <c r="B13">
         <v>0.25</v>
@@ -1245,13 +1245,13 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E13">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G13">
         <v>1.42</v>
@@ -1263,54 +1263,54 @@
         <v>43</v>
       </c>
       <c r="J13">
-        <v>530.2797304303227</v>
+        <v>834.6467624287284</v>
       </c>
       <c r="K13">
-        <v>510.3297356971366</v>
+        <v>812.109397454243</v>
       </c>
       <c r="L13">
-        <v>18.91423153318611</v>
+        <v>20.68744497448545</v>
       </c>
       <c r="M13">
-        <v>1.0357632</v>
+        <v>1.84992</v>
       </c>
       <c r="N13">
-        <v>1840.223786618305</v>
+        <v>1088.091423806609</v>
       </c>
       <c r="O13">
-        <v>10.31503833545808</v>
+        <v>6.34579915546867</v>
       </c>
       <c r="P13">
-        <v>137.314706100227</v>
+        <v>140.251091669812</v>
       </c>
       <c r="Q13">
-        <v>8.012432195896611</v>
+        <v>3.711947364932601</v>
       </c>
       <c r="R13">
-        <v>127.7138210989198</v>
+        <v>110.0190302571293</v>
       </c>
       <c r="S13">
-        <v>576.6204521107264</v>
+        <v>553.0961233465688</v>
       </c>
       <c r="T13">
-        <v>852.12452312757</v>
+        <v>146.6114130643143</v>
       </c>
       <c r="U13">
-        <v>101.5741293346428</v>
+        <v>126.7108267952721</v>
       </c>
       <c r="V13">
-        <v>137.858693288253</v>
+        <v>176.3207369561927</v>
       </c>
       <c r="W13">
-        <v>308.9602354217433</v>
+        <v>425.9342249787221</v>
       </c>
       <c r="X13">
-        <v>0.2499999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14">
-        <v>700</v>
+        <v>615</v>
       </c>
       <c r="B14">
         <v>0.25</v>
@@ -1319,16 +1319,16 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="E14">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G14">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H14">
         <v>14</v>
@@ -1337,54 +1337,54 @@
         <v>43</v>
       </c>
       <c r="J14">
-        <v>530.2002089398794</v>
+        <v>730.9162912930464</v>
       </c>
       <c r="K14">
-        <v>509.9257579595404</v>
+        <v>710.6732052595058</v>
       </c>
       <c r="L14">
-        <v>19.22209898033897</v>
+        <v>18.58773563354053</v>
       </c>
       <c r="M14">
-        <v>1.052352</v>
+        <v>1.6553504</v>
       </c>
       <c r="N14">
-        <v>1884.428306316733</v>
+        <v>1196.777946903112</v>
       </c>
       <c r="O14">
-        <v>11.36459837553113</v>
+        <v>8.097988161771186</v>
       </c>
       <c r="P14">
-        <v>137.008116221863</v>
+        <v>138.8091702616424</v>
       </c>
       <c r="Q14">
-        <v>8.985902804270268</v>
+        <v>4.93097158743055</v>
       </c>
       <c r="R14">
-        <v>128.9257290357833</v>
+        <v>111.7937183009956</v>
       </c>
       <c r="S14">
-        <v>578.0009367037251</v>
+        <v>567.7294255905261</v>
       </c>
       <c r="T14">
-        <v>891.9977550867654</v>
+        <v>237.334850109122</v>
       </c>
       <c r="U14">
-        <v>96.54678984251696</v>
+        <v>119.1698175570833</v>
       </c>
       <c r="V14">
-        <v>134.7234514480904</v>
+        <v>165.6736541810982</v>
       </c>
       <c r="W14">
-        <v>309.0608627485884</v>
+        <v>399.2132980034307</v>
       </c>
       <c r="X14">
-        <v>0.2499999999999999</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B15">
         <v>0.25</v>
@@ -1393,13 +1393,13 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="E15">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F15">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G15">
         <v>1.42</v>
@@ -1411,54 +1411,54 @@
         <v>43</v>
       </c>
       <c r="J15">
-        <v>525.6852919662576</v>
+        <v>738.0558547147573</v>
       </c>
       <c r="K15">
-        <v>505.4108409859186</v>
+        <v>717.8127686812168</v>
       </c>
       <c r="L15">
-        <v>19.22209898033897</v>
+        <v>18.58773563354053</v>
       </c>
       <c r="M15">
-        <v>1.052352</v>
+        <v>1.6553504</v>
       </c>
       <c r="N15">
-        <v>1901.468187610981</v>
+        <v>1172.929587429122</v>
       </c>
       <c r="O15">
-        <v>11.34697025401822</v>
+        <v>7.603873035708886</v>
       </c>
       <c r="P15">
-        <v>136.8215340067141</v>
+        <v>139.3520385634437</v>
       </c>
       <c r="Q15">
-        <v>8.831122203187308</v>
+        <v>4.604651348677216</v>
       </c>
       <c r="R15">
-        <v>127.5819468574777</v>
+        <v>111.7097570442631</v>
       </c>
       <c r="S15">
-        <v>596.7435911140228</v>
+        <v>558.3814134079433</v>
       </c>
       <c r="T15">
-        <v>891.9977550867654</v>
+        <v>223.2040060799599</v>
       </c>
       <c r="U15">
-        <v>96.54678984251696</v>
+        <v>119.1698175570833</v>
       </c>
       <c r="V15">
-        <v>134.7234514480904</v>
+        <v>165.6736541810982</v>
       </c>
       <c r="W15">
-        <v>317.6896647455183</v>
+        <v>397.9823695900588</v>
       </c>
       <c r="X15">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16">
-        <v>675</v>
+        <v>590</v>
       </c>
       <c r="B16">
         <v>0.25</v>
@@ -1467,13 +1467,13 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="E16">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G16">
         <v>1.42</v>
@@ -1485,48 +1485,1528 @@
         <v>43</v>
       </c>
       <c r="J16">
-        <v>530.7974323550033</v>
+        <v>745.3423211767428</v>
       </c>
       <c r="K16">
-        <v>510.5229813746643</v>
+        <v>725.0992351432022</v>
       </c>
       <c r="L16">
-        <v>19.22209898033897</v>
+        <v>18.58773563354053</v>
       </c>
       <c r="M16">
-        <v>1.052352</v>
+        <v>1.6553504</v>
       </c>
       <c r="N16">
-        <v>1806.539315190621</v>
+        <v>1156.723846663369</v>
       </c>
       <c r="O16">
-        <v>10.31730970648626</v>
+        <v>7.262750837055914</v>
       </c>
       <c r="P16">
-        <v>137.3412607799874</v>
+        <v>139.3469746637605</v>
       </c>
       <c r="Q16">
-        <v>7.805796256705115</v>
+        <v>4.382935299245309</v>
       </c>
       <c r="R16">
-        <v>125.7331330359947</v>
+        <v>111.4852582932202</v>
       </c>
       <c r="S16">
-        <v>582.328579940017</v>
+        <v>552.1068476965124</v>
       </c>
       <c r="T16">
-        <v>814.8904218219235</v>
+        <v>214.0701323508195</v>
       </c>
       <c r="U16">
-        <v>96.54678984251696</v>
+        <v>119.1698175570833</v>
       </c>
       <c r="V16">
-        <v>134.7234514480904</v>
+        <v>165.6736541810982</v>
       </c>
       <c r="W16">
-        <v>316.6376126596555</v>
+        <v>396.8261398746322</v>
       </c>
       <c r="X16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17">
+        <v>645</v>
+      </c>
+      <c r="B17">
+        <v>0.25</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>155</v>
+      </c>
+      <c r="E17">
+        <v>37</v>
+      </c>
+      <c r="F17">
+        <v>47</v>
+      </c>
+      <c r="G17">
+        <v>1.36</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>43</v>
+      </c>
+      <c r="J17">
+        <v>730.7677558576817</v>
+      </c>
+      <c r="K17">
+        <v>709.3447843504412</v>
+      </c>
+      <c r="L17">
+        <v>19.6547563072405</v>
+      </c>
+      <c r="M17">
+        <v>1.7682152</v>
+      </c>
+      <c r="N17">
+        <v>1198.162604559931</v>
+      </c>
+      <c r="O17">
+        <v>9.171053065705786</v>
+      </c>
+      <c r="P17">
+        <v>138.1239148483753</v>
+      </c>
+      <c r="Q17">
+        <v>5.631603132379578</v>
+      </c>
+      <c r="R17">
+        <v>111.999740767196</v>
+      </c>
+      <c r="S17">
+        <v>560.9392645519966</v>
+      </c>
+      <c r="T17">
+        <v>244.1967143694309</v>
+      </c>
+      <c r="U17">
+        <v>126.7108267952721</v>
+      </c>
+      <c r="V17">
+        <v>173.3492587062422</v>
+      </c>
+      <c r="W17">
+        <v>396.6133854064345</v>
+      </c>
+      <c r="X17">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18">
+        <v>635</v>
+      </c>
+      <c r="B18">
+        <v>0.25</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>155</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>1.36</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>43</v>
+      </c>
+      <c r="J18">
+        <v>737.9459973550411</v>
+      </c>
+      <c r="K18">
+        <v>716.5230258478007</v>
+      </c>
+      <c r="L18">
+        <v>19.6547563072405</v>
+      </c>
+      <c r="M18">
+        <v>1.7682152</v>
+      </c>
+      <c r="N18">
+        <v>1183.272817516902</v>
+      </c>
+      <c r="O18">
+        <v>8.837854129483077</v>
+      </c>
+      <c r="P18">
+        <v>138.8145623568352</v>
+      </c>
+      <c r="Q18">
+        <v>5.410309157280551</v>
+      </c>
+      <c r="R18">
+        <v>112.1466195887969</v>
+      </c>
+      <c r="S18">
+        <v>555.0768517254945</v>
+      </c>
+      <c r="T18">
+        <v>234.8928767522418</v>
+      </c>
+      <c r="U18">
+        <v>126.7108267952721</v>
+      </c>
+      <c r="V18">
+        <v>173.3492587062422</v>
+      </c>
+      <c r="W18">
+        <v>395.4611329028496</v>
+      </c>
+      <c r="X18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19">
+        <v>575</v>
+      </c>
+      <c r="B19">
+        <v>0.25</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>155</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>47</v>
+      </c>
+      <c r="G19">
+        <v>1.39</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>43</v>
+      </c>
+      <c r="J19">
+        <v>832.0592767829247</v>
+      </c>
+      <c r="K19">
+        <v>808.7706663092898</v>
+      </c>
+      <c r="L19">
+        <v>21.37702647363496</v>
+      </c>
+      <c r="M19">
+        <v>1.911584</v>
+      </c>
+      <c r="N19">
+        <v>1102.16413909597</v>
+      </c>
+      <c r="O19">
+        <v>6.802565647685149</v>
+      </c>
+      <c r="P19">
+        <v>139.9349128564444</v>
+      </c>
+      <c r="Q19">
+        <v>4.010032847027441</v>
+      </c>
+      <c r="R19">
+        <v>110.3453016746205</v>
+      </c>
+      <c r="S19">
+        <v>551.2208819974775</v>
+      </c>
+      <c r="T19">
+        <v>161.7882753333243</v>
+      </c>
+      <c r="U19">
+        <v>126.7108267952721</v>
+      </c>
+      <c r="V19">
+        <v>176.3207369561927</v>
+      </c>
+      <c r="W19">
+        <v>418.4018386010497</v>
+      </c>
+      <c r="X19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20">
+        <v>645</v>
+      </c>
+      <c r="B20">
+        <v>0.25</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>160</v>
+      </c>
+      <c r="E20">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>47</v>
+      </c>
+      <c r="G20">
+        <v>1.39</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <v>43</v>
+      </c>
+      <c r="J20">
+        <v>715.7381769460104</v>
+      </c>
+      <c r="K20">
+        <v>695.5182983226354</v>
+      </c>
+      <c r="L20">
+        <v>18.54261782337508</v>
+      </c>
+      <c r="M20">
+        <v>1.6772608</v>
+      </c>
+      <c r="N20">
+        <v>1250.865200752395</v>
+      </c>
+      <c r="O20">
+        <v>9.165661617824071</v>
+      </c>
+      <c r="P20">
+        <v>138.0525450425692</v>
+      </c>
+      <c r="Q20">
+        <v>5.745424254709915</v>
+      </c>
+      <c r="R20">
+        <v>113.2344046716912</v>
+      </c>
+      <c r="S20">
+        <v>568.0491100657941</v>
+      </c>
+      <c r="T20">
+        <v>288.5177412749601</v>
+      </c>
+      <c r="U20">
+        <v>126.7108267952721</v>
+      </c>
+      <c r="V20">
+        <v>170.3788041295589</v>
+      </c>
+      <c r="W20">
+        <v>382.7079612236635</v>
+      </c>
+      <c r="X20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21">
+        <v>610</v>
+      </c>
+      <c r="B21">
+        <v>0.25</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>160</v>
+      </c>
+      <c r="E21">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>47</v>
+      </c>
+      <c r="G21">
+        <v>1.42</v>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>43</v>
+      </c>
+      <c r="J21">
+        <v>724.0078856185404</v>
+      </c>
+      <c r="K21">
+        <v>703.7880069951653</v>
+      </c>
+      <c r="L21">
+        <v>18.54261782337508</v>
+      </c>
+      <c r="M21">
+        <v>1.6772608</v>
+      </c>
+      <c r="N21">
+        <v>1207.825558828501</v>
+      </c>
+      <c r="O21">
+        <v>7.926753638696456</v>
+      </c>
+      <c r="P21">
+        <v>138.9204692834881</v>
+      </c>
+      <c r="Q21">
+        <v>4.841434670073041</v>
+      </c>
+      <c r="R21">
+        <v>112.0290251347421</v>
+      </c>
+      <c r="S21">
+        <v>564.876566067588</v>
+      </c>
+      <c r="T21">
+        <v>251.1522324100249</v>
+      </c>
+      <c r="U21">
+        <v>126.7108267952721</v>
+      </c>
+      <c r="V21">
+        <v>170.3788041295589</v>
+      </c>
+      <c r="W21">
+        <v>390.9729768998403</v>
+      </c>
+      <c r="X21">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22">
+        <v>615</v>
+      </c>
+      <c r="B22">
+        <v>0.25</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>160</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <v>1.39</v>
+      </c>
+      <c r="H22">
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <v>43</v>
+      </c>
+      <c r="J22">
+        <v>735.1103719426391</v>
+      </c>
+      <c r="K22">
+        <v>714.2142831338231</v>
+      </c>
+      <c r="L22">
+        <v>19.18734000881603</v>
+      </c>
+      <c r="M22">
+        <v>1.7087488</v>
+      </c>
+      <c r="N22">
+        <v>1192.567662034427</v>
+      </c>
+      <c r="O22">
+        <v>8.096093540153495</v>
+      </c>
+      <c r="P22">
+        <v>138.7806063200565</v>
+      </c>
+      <c r="Q22">
+        <v>4.949392350230785</v>
+      </c>
+      <c r="R22">
+        <v>112.0211578003381</v>
+      </c>
+      <c r="S22">
+        <v>555.6477761161563</v>
+      </c>
+      <c r="T22">
+        <v>244.9908130158679</v>
+      </c>
+      <c r="U22">
+        <v>119.1698175570833</v>
+      </c>
+      <c r="V22">
+        <v>165.6736541810982</v>
+      </c>
+      <c r="W22">
+        <v>390.9886288616671</v>
+      </c>
+      <c r="X22">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23">
+        <v>645</v>
+      </c>
+      <c r="B23">
+        <v>0.25</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>165</v>
+      </c>
+      <c r="E23">
+        <v>34</v>
+      </c>
+      <c r="F23">
+        <v>44</v>
+      </c>
+      <c r="G23">
+        <v>1.42</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>43</v>
+      </c>
+      <c r="J23">
+        <v>701.9074467971619</v>
+      </c>
+      <c r="K23">
+        <v>682.2198707134273</v>
+      </c>
+      <c r="L23">
+        <v>18.0683056837346</v>
+      </c>
+      <c r="M23">
+        <v>1.6192704</v>
+      </c>
+      <c r="N23">
+        <v>1301.723047898066</v>
+      </c>
+      <c r="O23">
+        <v>9.169829714336711</v>
+      </c>
+      <c r="P23">
+        <v>138.1077206178905</v>
+      </c>
+      <c r="Q23">
+        <v>5.810753836274867</v>
+      </c>
+      <c r="R23">
+        <v>113.9430611547992</v>
+      </c>
+      <c r="S23">
+        <v>580.6006498443237</v>
+      </c>
+      <c r="T23">
+        <v>325.9907189055952</v>
+      </c>
+      <c r="U23">
+        <v>119.1698175570833</v>
+      </c>
+      <c r="V23">
+        <v>162.7020842677463</v>
+      </c>
+      <c r="W23">
+        <v>378.6054337738953</v>
+      </c>
+      <c r="X23">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24">
+        <v>620</v>
+      </c>
+      <c r="B24">
+        <v>0.25</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>165</v>
+      </c>
+      <c r="E24">
+        <v>34</v>
+      </c>
+      <c r="F24">
+        <v>44</v>
+      </c>
+      <c r="G24">
+        <v>1.42</v>
+      </c>
+      <c r="H24">
+        <v>14</v>
+      </c>
+      <c r="I24">
+        <v>43</v>
+      </c>
+      <c r="J24">
+        <v>708.8669867940207</v>
+      </c>
+      <c r="K24">
+        <v>689.1794107102861</v>
+      </c>
+      <c r="L24">
+        <v>18.0683056837346</v>
+      </c>
+      <c r="M24">
+        <v>1.6192704</v>
+      </c>
+      <c r="N24">
+        <v>1254.128100021961</v>
+      </c>
+      <c r="O24">
+        <v>8.259465247298634</v>
+      </c>
+      <c r="P24">
+        <v>138.5212093892002</v>
+      </c>
+      <c r="Q24">
+        <v>5.161362965533709</v>
+      </c>
+      <c r="R24">
+        <v>113.2513001448959</v>
+      </c>
+      <c r="S24">
+        <v>565.3718484869997</v>
+      </c>
+      <c r="T24">
+        <v>295.4782547635168</v>
+      </c>
+      <c r="U24">
+        <v>119.1698175570833</v>
+      </c>
+      <c r="V24">
+        <v>162.7020842677463</v>
+      </c>
+      <c r="W24">
+        <v>377.465709736102</v>
+      </c>
+      <c r="X24">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25">
+        <v>605</v>
+      </c>
+      <c r="B25">
+        <v>0.25</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>165</v>
+      </c>
+      <c r="E25">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>44</v>
+      </c>
+      <c r="G25">
+        <v>1.42</v>
+      </c>
+      <c r="H25">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>43</v>
+      </c>
+      <c r="J25">
+        <v>715.9663094684347</v>
+      </c>
+      <c r="K25">
+        <v>696.2787333847001</v>
+      </c>
+      <c r="L25">
+        <v>18.0683056837346</v>
+      </c>
+      <c r="M25">
+        <v>1.6192704</v>
+      </c>
+      <c r="N25">
+        <v>1226.943824219333</v>
+      </c>
+      <c r="O25">
+        <v>7.759496804617227</v>
+      </c>
+      <c r="P25">
+        <v>139.0595856974883</v>
+      </c>
+      <c r="Q25">
+        <v>4.815038731115708</v>
+      </c>
+      <c r="R25">
+        <v>113.0703803907857</v>
+      </c>
+      <c r="S25">
+        <v>556.1380322396006</v>
+      </c>
+      <c r="T25">
+        <v>278.0248700934545</v>
+      </c>
+      <c r="U25">
+        <v>119.1698175570833</v>
+      </c>
+      <c r="V25">
+        <v>162.7020842677463</v>
+      </c>
+      <c r="W25">
+        <v>376.3957869303902</v>
+      </c>
+      <c r="X25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26">
+        <v>630</v>
+      </c>
+      <c r="B26">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>170</v>
+      </c>
+      <c r="E26">
+        <v>31</v>
+      </c>
+      <c r="F26">
+        <v>47</v>
+      </c>
+      <c r="G26">
+        <v>1.42</v>
+      </c>
+      <c r="H26">
+        <v>14</v>
+      </c>
+      <c r="I26">
+        <v>43</v>
+      </c>
+      <c r="J26">
+        <v>703.3742196206334</v>
+      </c>
+      <c r="K26">
+        <v>683.8694965984124</v>
+      </c>
+      <c r="L26">
+        <v>17.87987662222096</v>
+      </c>
+      <c r="M26">
+        <v>1.6248464</v>
+      </c>
+      <c r="N26">
+        <v>1299.234337935798</v>
+      </c>
+      <c r="O26">
+        <v>8.61238581509858</v>
+      </c>
+      <c r="P26">
+        <v>138.2963455890808</v>
+      </c>
+      <c r="Q26">
+        <v>5.464315401184892</v>
+      </c>
+      <c r="R26">
+        <v>114.1014780041204</v>
+      </c>
+      <c r="S26">
+        <v>570.2540494449013</v>
+      </c>
+      <c r="T26">
+        <v>334.4151474294279</v>
+      </c>
+      <c r="U26">
+        <v>126.7108267952721</v>
+      </c>
+      <c r="V26">
+        <v>167.4094290511122</v>
+      </c>
+      <c r="W26">
+        <v>370.2991466323799</v>
+      </c>
+      <c r="X26">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27">
+        <v>630</v>
+      </c>
+      <c r="B27">
+        <v>0.25</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>170</v>
+      </c>
+      <c r="E27">
+        <v>34</v>
+      </c>
+      <c r="F27">
+        <v>44</v>
+      </c>
+      <c r="G27">
+        <v>1.39</v>
+      </c>
+      <c r="H27">
+        <v>14</v>
+      </c>
+      <c r="I27">
+        <v>43</v>
+      </c>
+      <c r="J27">
+        <v>705.0930232030744</v>
+      </c>
+      <c r="K27">
+        <v>684.8088539046812</v>
+      </c>
+      <c r="L27">
+        <v>18.61583009839322</v>
+      </c>
+      <c r="M27">
+        <v>1.6683392</v>
+      </c>
+      <c r="N27">
+        <v>1270.014495343445</v>
+      </c>
+      <c r="O27">
+        <v>8.618097096576074</v>
+      </c>
+      <c r="P27">
+        <v>138.3769678174214</v>
+      </c>
+      <c r="Q27">
+        <v>5.432422155591038</v>
+      </c>
+      <c r="R27">
+        <v>113.7326605518166</v>
+      </c>
+      <c r="S27">
+        <v>558.9781778560456</v>
+      </c>
+      <c r="T27">
+        <v>316.7855536140108</v>
+      </c>
+      <c r="U27">
+        <v>119.1698175570833</v>
+      </c>
+      <c r="V27">
+        <v>162.7020842677463</v>
+      </c>
+      <c r="W27">
+        <v>370.9307514664824</v>
+      </c>
+      <c r="X27">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28">
+        <v>620</v>
+      </c>
+      <c r="B28">
+        <v>0.25</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>175</v>
+      </c>
+      <c r="E28">
+        <v>34</v>
+      </c>
+      <c r="F28">
+        <v>41</v>
+      </c>
+      <c r="G28">
+        <v>1.42</v>
+      </c>
+      <c r="H28">
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <v>43</v>
+      </c>
+      <c r="J28">
+        <v>697.7192068732249</v>
+      </c>
+      <c r="K28">
+        <v>678.0645188239026</v>
+      </c>
+      <c r="L28">
+        <v>18.0543760493223</v>
+      </c>
+      <c r="M28">
+        <v>1.600312</v>
+      </c>
+      <c r="N28">
+        <v>1303.877951349431</v>
+      </c>
+      <c r="O28">
+        <v>8.263170533891207</v>
+      </c>
+      <c r="P28">
+        <v>138.5758501966286</v>
+      </c>
+      <c r="Q28">
+        <v>5.249520066860493</v>
+      </c>
+      <c r="R28">
+        <v>114.3160770220629</v>
+      </c>
+      <c r="S28">
+        <v>564.2374236427075</v>
+      </c>
+      <c r="T28">
+        <v>345.1512508627643</v>
+      </c>
+      <c r="U28">
+        <v>111.6288083188945</v>
+      </c>
+      <c r="V28">
+        <v>155.0265879867928</v>
+      </c>
+      <c r="W28">
+        <v>366.0280905505043</v>
+      </c>
+      <c r="X28">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29">
+        <v>610</v>
+      </c>
+      <c r="B29">
+        <v>0.25</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>175</v>
+      </c>
+      <c r="E29">
+        <v>34</v>
+      </c>
+      <c r="F29">
+        <v>41</v>
+      </c>
+      <c r="G29">
+        <v>1.42</v>
+      </c>
+      <c r="H29">
+        <v>14</v>
+      </c>
+      <c r="I29">
+        <v>43</v>
+      </c>
+      <c r="J29">
+        <v>704.732909612577</v>
+      </c>
+      <c r="K29">
+        <v>685.0782215632547</v>
+      </c>
+      <c r="L29">
+        <v>18.0543760493223</v>
+      </c>
+      <c r="M29">
+        <v>1.600312</v>
+      </c>
+      <c r="N29">
+        <v>1283.743136873816</v>
+      </c>
+      <c r="O29">
+        <v>7.927779549418765</v>
+      </c>
+      <c r="P29">
+        <v>138.9362847763032</v>
+      </c>
+      <c r="Q29">
+        <v>5.013940292292373</v>
+      </c>
+      <c r="R29">
+        <v>114.2067110848984</v>
+      </c>
+      <c r="S29">
+        <v>558.1021285015618</v>
+      </c>
+      <c r="T29">
+        <v>331.477215045453</v>
+      </c>
+      <c r="U29">
+        <v>111.6288083188945</v>
+      </c>
+      <c r="V29">
+        <v>155.0265879867928</v>
+      </c>
+      <c r="W29">
+        <v>364.9499170420111</v>
+      </c>
+      <c r="X29">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30">
+        <v>665</v>
+      </c>
+      <c r="B30">
+        <v>0.25</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>175</v>
+      </c>
+      <c r="E30">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>44</v>
+      </c>
+      <c r="G30">
+        <v>1.36</v>
+      </c>
+      <c r="H30">
+        <v>14</v>
+      </c>
+      <c r="I30">
+        <v>43</v>
+      </c>
+      <c r="J30">
+        <v>693.4577308699593</v>
+      </c>
+      <c r="K30">
+        <v>672.5769683569074</v>
+      </c>
+      <c r="L30">
+        <v>19.16335451305185</v>
+      </c>
+      <c r="M30">
+        <v>1.717408</v>
+      </c>
+      <c r="N30">
+        <v>1336.574781310677</v>
+      </c>
+      <c r="O30">
+        <v>9.918357708354829</v>
+      </c>
+      <c r="P30">
+        <v>137.5056800278697</v>
+      </c>
+      <c r="Q30">
+        <v>6.402195201689008</v>
+      </c>
+      <c r="R30">
+        <v>114.8229121238938</v>
+      </c>
+      <c r="S30">
+        <v>566.7939269497688</v>
+      </c>
+      <c r="T30">
+        <v>373.0168925237646</v>
+      </c>
+      <c r="U30">
+        <v>119.1698175570833</v>
+      </c>
+      <c r="V30">
+        <v>162.7020842677463</v>
+      </c>
+      <c r="W30">
+        <v>365.5048479218116</v>
+      </c>
+      <c r="X30">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31">
+        <v>660</v>
+      </c>
+      <c r="B31">
+        <v>0.25</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>180</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+      <c r="F31">
+        <v>44</v>
+      </c>
+      <c r="G31">
+        <v>1.42</v>
+      </c>
+      <c r="H31">
+        <v>14</v>
+      </c>
+      <c r="I31">
+        <v>43</v>
+      </c>
+      <c r="J31">
+        <v>681.1455646894212</v>
+      </c>
+      <c r="K31">
+        <v>661.6633309172403</v>
+      </c>
+      <c r="L31">
+        <v>17.87162257218093</v>
+      </c>
+      <c r="M31">
+        <v>1.6106112</v>
+      </c>
+      <c r="N31">
+        <v>1421.744060684957</v>
+      </c>
+      <c r="O31">
+        <v>9.732640754312936</v>
+      </c>
+      <c r="P31">
+        <v>137.7140921492893</v>
+      </c>
+      <c r="Q31">
+        <v>6.411369605236347</v>
+      </c>
+      <c r="R31">
+        <v>116.2423386275755</v>
+      </c>
+      <c r="S31">
+        <v>587.3423560963954</v>
+      </c>
+      <c r="T31">
+        <v>436.19025250142</v>
+      </c>
+      <c r="U31">
+        <v>119.1698175570833</v>
+      </c>
+      <c r="V31">
+        <v>159.7316045174657</v>
+      </c>
+      <c r="W31">
+        <v>361.3776343548097</v>
+      </c>
+      <c r="X31">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32">
+        <v>630</v>
+      </c>
+      <c r="B32">
+        <v>0.25</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>180</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>44</v>
+      </c>
+      <c r="G32">
+        <v>1.42</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <v>43</v>
+      </c>
+      <c r="J32">
+        <v>687.9266204878352</v>
+      </c>
+      <c r="K32">
+        <v>668.4443867156542</v>
+      </c>
+      <c r="L32">
+        <v>17.87162257218093</v>
+      </c>
+      <c r="M32">
+        <v>1.6106112</v>
+      </c>
+      <c r="N32">
+        <v>1353.576419787021</v>
+      </c>
+      <c r="O32">
+        <v>8.612471995105773</v>
+      </c>
+      <c r="P32">
+        <v>138.2975621329065</v>
+      </c>
+      <c r="Q32">
+        <v>5.559953494341912</v>
+      </c>
+      <c r="R32">
+        <v>115.2074487889864</v>
+      </c>
+      <c r="S32">
+        <v>569.255302774438</v>
+      </c>
+      <c r="T32">
+        <v>388.553064349259</v>
+      </c>
+      <c r="U32">
+        <v>119.1698175570833</v>
+      </c>
+      <c r="V32">
+        <v>159.7316045174657</v>
+      </c>
+      <c r="W32">
+        <v>360.2556307820062</v>
+      </c>
+      <c r="X32">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33">
+        <v>620</v>
+      </c>
+      <c r="B33">
+        <v>0.25</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>180</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+      <c r="F33">
+        <v>44</v>
+      </c>
+      <c r="G33">
+        <v>1.42</v>
+      </c>
+      <c r="H33">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <v>43</v>
+      </c>
+      <c r="J33">
+        <v>694.857307194203</v>
+      </c>
+      <c r="K33">
+        <v>675.3750734220221</v>
+      </c>
+      <c r="L33">
+        <v>17.87162257218093</v>
+      </c>
+      <c r="M33">
+        <v>1.6106112</v>
+      </c>
+      <c r="N33">
+        <v>1332.48499132941</v>
+      </c>
+      <c r="O33">
+        <v>8.290326799831252</v>
+      </c>
+      <c r="P33">
+        <v>138.9763159259678</v>
+      </c>
+      <c r="Q33">
+        <v>5.326223483672468</v>
+      </c>
+      <c r="R33">
+        <v>115.2425142958834</v>
+      </c>
+      <c r="S33">
+        <v>563.1639553589704</v>
+      </c>
+      <c r="T33">
+        <v>373.4009964405684</v>
+      </c>
+      <c r="U33">
+        <v>119.1698175570833</v>
+      </c>
+      <c r="V33">
+        <v>159.7316045174657</v>
+      </c>
+      <c r="W33">
+        <v>359.2051472429577</v>
+      </c>
+      <c r="X33">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34">
+        <v>660</v>
+      </c>
+      <c r="B34">
+        <v>0.25</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>180</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <v>41</v>
+      </c>
+      <c r="G34">
+        <v>1.39</v>
+      </c>
+      <c r="H34">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <v>43</v>
+      </c>
+      <c r="J34">
+        <v>686.2840106586427</v>
+      </c>
+      <c r="K34">
+        <v>666.0677600936255</v>
+      </c>
+      <c r="L34">
+        <v>18.57021536501722</v>
+      </c>
+      <c r="M34">
+        <v>1.6460352</v>
+      </c>
+      <c r="N34">
+        <v>1387.621904676795</v>
+      </c>
+      <c r="O34">
+        <v>9.732348713040727</v>
+      </c>
+      <c r="P34">
+        <v>137.7104615918883</v>
+      </c>
+      <c r="Q34">
+        <v>6.361336473456229</v>
+      </c>
+      <c r="R34">
+        <v>115.7325086143877</v>
+      </c>
+      <c r="S34">
+        <v>575.2643491023788</v>
+      </c>
+      <c r="T34">
+        <v>414.7098892309161</v>
+      </c>
+      <c r="U34">
+        <v>111.6288083188945</v>
+      </c>
+      <c r="V34">
+        <v>155.0265879867928</v>
+      </c>
+      <c r="W34">
+        <v>362.8747537520548</v>
+      </c>
+      <c r="X34">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35">
+        <v>640</v>
+      </c>
+      <c r="B35">
+        <v>0.25</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>180</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>41</v>
+      </c>
+      <c r="G35">
+        <v>1.39</v>
+      </c>
+      <c r="H35">
+        <v>14</v>
+      </c>
+      <c r="I35">
+        <v>43</v>
+      </c>
+      <c r="J35">
+        <v>693.1038283824117</v>
+      </c>
+      <c r="K35">
+        <v>672.8875778173945</v>
+      </c>
+      <c r="L35">
+        <v>18.57021536501722</v>
+      </c>
+      <c r="M35">
+        <v>1.6460352</v>
+      </c>
+      <c r="N35">
+        <v>1343.925195130377</v>
+      </c>
+      <c r="O35">
+        <v>8.983441660703127</v>
+      </c>
+      <c r="P35">
+        <v>138.1954724033446</v>
+      </c>
+      <c r="Q35">
+        <v>5.802029096591442</v>
+      </c>
+      <c r="R35">
+        <v>115.1945521821935</v>
+      </c>
+      <c r="S35">
+        <v>563.4843737632607</v>
+      </c>
+      <c r="T35">
+        <v>384.168350868718</v>
+      </c>
+      <c r="U35">
+        <v>111.6288083188945</v>
+      </c>
+      <c r="V35">
+        <v>155.0265879867928</v>
+      </c>
+      <c r="W35">
+        <v>361.7481019300158</v>
+      </c>
+      <c r="X35">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36">
+        <v>730</v>
+      </c>
+      <c r="B36">
+        <v>0.25</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>180</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <v>44</v>
+      </c>
+      <c r="G36">
+        <v>1.33</v>
+      </c>
+      <c r="H36">
+        <v>14</v>
+      </c>
+      <c r="I36">
+        <v>43</v>
+      </c>
+      <c r="J36">
+        <v>681.0857098189392</v>
+      </c>
+      <c r="K36">
+        <v>659.6083540912288</v>
+      </c>
+      <c r="L36">
+        <v>19.71087892771047</v>
+      </c>
+      <c r="M36">
+        <v>1.7664768</v>
+      </c>
+      <c r="N36">
+        <v>1479.057477275408</v>
+      </c>
+      <c r="O36">
+        <v>13.04007423289614</v>
+      </c>
+      <c r="P36">
+        <v>138.1901828440424</v>
+      </c>
+      <c r="Q36">
+        <v>8.586961154794473</v>
+      </c>
+      <c r="R36">
+        <v>117.4091235855922</v>
+      </c>
+      <c r="S36">
+        <v>589.8723421001035</v>
+      </c>
+      <c r="T36">
+        <v>483.78118755323</v>
+      </c>
+      <c r="U36">
+        <v>119.1698175570833</v>
+      </c>
+      <c r="V36">
+        <v>162.7020842677463</v>
+      </c>
+      <c r="W36">
+        <v>362.1064547651414</v>
+      </c>
+      <c r="X36">
         <v>0.19</v>
       </c>
     </row>
